--- a/엑셀 자료/소요부품명세서_메인보드.xlsx
+++ b/엑셀 자료/소요부품명세서_메인보드.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\teageuk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\teageuk\엑셀 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/엑셀 자료/소요부품명세서_메인보드.xlsx
+++ b/엑셀 자료/소요부품명세서_메인보드.xlsx
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
